--- a/python/words.xlsx
+++ b/python/words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="運動" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,18 @@
     <sheet name="飲料" sheetId="10" r:id="rId10"/>
     <sheet name="水果" sheetId="11" r:id="rId11"/>
     <sheet name="動詞" sheetId="12" r:id="rId12"/>
+    <sheet name="家" sheetId="13" r:id="rId13"/>
+    <sheet name="季節天氣" sheetId="14" r:id="rId14"/>
+    <sheet name="口味" sheetId="15" r:id="rId15"/>
+    <sheet name="日期" sheetId="16" r:id="rId16"/>
+    <sheet name="介詞" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1127">
   <si>
     <t>baseball</t>
   </si>
@@ -2060,6 +2065,1408 @@
   </si>
   <si>
     <t>翻譯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房子</t>
+  </si>
+  <si>
+    <t>We live in a small house near the park.</t>
+  </si>
+  <si>
+    <t>廚房</t>
+  </si>
+  <si>
+    <t>Mom is cooking dinner in the kitchen.</t>
+  </si>
+  <si>
+    <t>bedroom</t>
+  </si>
+  <si>
+    <t>臥室</t>
+  </si>
+  <si>
+    <t>I like to read books in my bedroom.</t>
+  </si>
+  <si>
+    <t>bathroom</t>
+  </si>
+  <si>
+    <t>浴室</t>
+  </si>
+  <si>
+    <t>The bathroom is next to the living room.</t>
+  </si>
+  <si>
+    <t>living room</t>
+  </si>
+  <si>
+    <t>客廳</t>
+  </si>
+  <si>
+    <t>We watched a movie in the living room.</t>
+  </si>
+  <si>
+    <t>sofa</t>
+  </si>
+  <si>
+    <t>沙發</t>
+  </si>
+  <si>
+    <t>She sat on the sofa and drank coffee.</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>桌子</t>
+  </si>
+  <si>
+    <t>The food is on the dining table.</t>
+  </si>
+  <si>
+    <t>He pulled out a chair for her.</t>
+  </si>
+  <si>
+    <t>Please close the door when you leave.</t>
+  </si>
+  <si>
+    <t>She opened the window to get some air.</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>天花板</t>
+  </si>
+  <si>
+    <t>There is a fan on the ceiling.</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>地板</t>
+  </si>
+  <si>
+    <t>The baby is crawling on the floor.</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>樓梯</t>
+  </si>
+  <si>
+    <t>She ran up the stairs quickly.</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>燈</t>
+  </si>
+  <si>
+    <t>I turned off the lamp before going to bed.</t>
+  </si>
+  <si>
+    <t>bookshelf</t>
+  </si>
+  <si>
+    <t>書架</t>
+  </si>
+  <si>
+    <t>The bookshelf is full of books.</t>
+  </si>
+  <si>
+    <t>closet</t>
+  </si>
+  <si>
+    <t>衣櫃</t>
+  </si>
+  <si>
+    <t>I keep my clothes in the closet.</t>
+  </si>
+  <si>
+    <t>curtain</t>
+  </si>
+  <si>
+    <t>窗簾</t>
+  </si>
+  <si>
+    <t>She opened the curtain to let in the sunlight.</t>
+  </si>
+  <si>
+    <t>balcony</t>
+  </si>
+  <si>
+    <t>陽台</t>
+  </si>
+  <si>
+    <t>We had coffee on the balcony this morning.</t>
+  </si>
+  <si>
+    <t>garage</t>
+  </si>
+  <si>
+    <t>車庫</t>
+  </si>
+  <si>
+    <t>He parked the car in the garage.</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>花園</t>
+  </si>
+  <si>
+    <t>There are many flowers in the garden.</t>
+  </si>
+  <si>
+    <t>gate</t>
+  </si>
+  <si>
+    <t>大門</t>
+  </si>
+  <si>
+    <t>Please lock the gate when you leave.</t>
+  </si>
+  <si>
+    <t>pillow</t>
+  </si>
+  <si>
+    <t>枕頭</t>
+  </si>
+  <si>
+    <t>She hugged the pillow while sleeping.</t>
+  </si>
+  <si>
+    <t>blanket</t>
+  </si>
+  <si>
+    <t>毯子</t>
+  </si>
+  <si>
+    <t>He covered himself with a warm blanket.</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>洗手槽</t>
+  </si>
+  <si>
+    <t>She washed her hands in the sink.</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>鏡子</t>
+  </si>
+  <si>
+    <t>He looked at himself in the mirror.</t>
+  </si>
+  <si>
+    <t>refrigerator</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>We keep milk and eggs in the refrigerator.</t>
+  </si>
+  <si>
+    <t>stove</t>
+  </si>
+  <si>
+    <t>爐子</t>
+  </si>
+  <si>
+    <t>She cooked soup on the stove.</t>
+  </si>
+  <si>
+    <t>microwave</t>
+  </si>
+  <si>
+    <t>微波爐</t>
+  </si>
+  <si>
+    <t>I heated my lunch in the microwave.</t>
+  </si>
+  <si>
+    <t>bathtub</t>
+  </si>
+  <si>
+    <t>浴缸</t>
+  </si>
+  <si>
+    <t>He relaxed in the bathtub with bubbles.</t>
+  </si>
+  <si>
+    <t>washing machine</t>
+  </si>
+  <si>
+    <t>洗衣機</t>
+  </si>
+  <si>
+    <t>The washing machine is running now.</t>
+  </si>
+  <si>
+    <t>house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitchen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜歡在我的臥室裡看書。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室在客廳旁邊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們在客廳看了一部電影。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她坐在沙發上喝咖啡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物在餐桌上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>離開時請關上門。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他拉出一張椅子給她坐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她打開窗戶透透氣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天花板上有一個電風扇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬰兒正在地板上爬行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她快速跑上樓梯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在睡覺前關了燈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書架上滿是書。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我把衣服放在衣櫃裡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她拉開窗簾讓陽光進來。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們今天早上在陽台喝咖啡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他把車停在車庫裡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花園裡有很多花。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>離開時請把大門鎖上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她睡覺時抱著枕頭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他蓋著一條溫暖的毯子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她在洗手槽洗手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他照了照鏡子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們把牛奶和雞蛋放在冰箱裡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她在爐子上煮湯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我用微波爐加熱了午餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他在泡泡浴缸裡放鬆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣機現在正在運作中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽媽正在廚房煮晚餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們住在公園附近的一間小房子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>春天</t>
+  </si>
+  <si>
+    <t>Flowers bloom in spring.</t>
+  </si>
+  <si>
+    <t>春天花朵盛開。</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>夏天</t>
+  </si>
+  <si>
+    <t>We go to the beach in summer.</t>
+  </si>
+  <si>
+    <t>我們夏天去海邊玩。</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>秋天</t>
+  </si>
+  <si>
+    <t>Leaves fall from the trees in autumn.</t>
+  </si>
+  <si>
+    <t>秋天樹葉會掉落。</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>秋天（美式）</t>
+  </si>
+  <si>
+    <t>Fall is my favorite season.</t>
+  </si>
+  <si>
+    <t>秋天是我最喜歡的季節。</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>冬天</t>
+  </si>
+  <si>
+    <t>It often snows in winter.</t>
+  </si>
+  <si>
+    <t>冬天常常下雪。</t>
+  </si>
+  <si>
+    <t>sunny</t>
+  </si>
+  <si>
+    <t>晴天的</t>
+  </si>
+  <si>
+    <t>It’s a sunny day today.</t>
+  </si>
+  <si>
+    <t>今天天氣晴朗。</t>
+  </si>
+  <si>
+    <t>rainy</t>
+  </si>
+  <si>
+    <t>下雨的</t>
+  </si>
+  <si>
+    <t>Don’t forget your umbrella on a rainy day.</t>
+  </si>
+  <si>
+    <t>下雨天別忘了帶傘。</t>
+  </si>
+  <si>
+    <t>cloudy</t>
+  </si>
+  <si>
+    <t>多雲的</t>
+  </si>
+  <si>
+    <t>The sky is cloudy but it won’t rain.</t>
+  </si>
+  <si>
+    <t>天空多雲，但不會下雨。</t>
+  </si>
+  <si>
+    <t>snowy</t>
+  </si>
+  <si>
+    <t>下雪的</t>
+  </si>
+  <si>
+    <t>The children are playing in the snowy yard.</t>
+  </si>
+  <si>
+    <t>孩子們在雪地裡玩耍。</t>
+  </si>
+  <si>
+    <t>windy</t>
+  </si>
+  <si>
+    <t>有風的</t>
+  </si>
+  <si>
+    <t>It’s too windy to fly a kite.</t>
+  </si>
+  <si>
+    <t>風太大了，不能放風箏。</t>
+  </si>
+  <si>
+    <t>foggy</t>
+  </si>
+  <si>
+    <t>有霧的</t>
+  </si>
+  <si>
+    <t>The road is hard to see on foggy mornings.</t>
+  </si>
+  <si>
+    <t>有霧的早晨看不清楚路。</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>熱的</t>
+  </si>
+  <si>
+    <t>It’s very hot in July.</t>
+  </si>
+  <si>
+    <t>七月非常熱。</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>冷的</t>
+  </si>
+  <si>
+    <t>I wear a coat when it’s cold.</t>
+  </si>
+  <si>
+    <t>天冷時我會穿外套。</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>溫暖的</t>
+  </si>
+  <si>
+    <t>The weather is warm and perfect today.</t>
+  </si>
+  <si>
+    <t>今天天氣溫暖又剛剛好。</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>涼爽的</t>
+  </si>
+  <si>
+    <t>I like the cool breeze in the evening.</t>
+  </si>
+  <si>
+    <t>我喜歡晚上的涼風。</t>
+  </si>
+  <si>
+    <t>thunder</t>
+  </si>
+  <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>Did you hear the thunder last night?</t>
+  </si>
+  <si>
+    <t>你昨晚有聽到打雷嗎？</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>閃電</t>
+  </si>
+  <si>
+    <t>The lightning lit up the sky.</t>
+  </si>
+  <si>
+    <t>閃電照亮了天空。</t>
+  </si>
+  <si>
+    <t>storm</t>
+  </si>
+  <si>
+    <t>暴風雨</t>
+  </si>
+  <si>
+    <t>A big storm is coming tonight.</t>
+  </si>
+  <si>
+    <t>今晚將有一場大暴風雨。</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>溫度</t>
+  </si>
+  <si>
+    <t>The temperature dropped below zero.</t>
+  </si>
+  <si>
+    <t>溫度降到零度以下。</t>
+  </si>
+  <si>
+    <t>forecast</t>
+  </si>
+  <si>
+    <t>天氣預報</t>
+  </si>
+  <si>
+    <t>I checked the weather forecast before going out.</t>
+  </si>
+  <si>
+    <t>出門前我看了天氣預報。</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>紅蘿蔔</t>
+  </si>
+  <si>
+    <t>Rabbits love to eat carrots.</t>
+  </si>
+  <si>
+    <t>兔子喜歡吃紅蘿蔔。</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>馬桶／廁所</t>
+  </si>
+  <si>
+    <t>He went to the toilet after breakfast.</t>
+  </si>
+  <si>
+    <t>他吃完早餐後上了廁所。</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>甜的</t>
+  </si>
+  <si>
+    <t>This cake is very sweet and delicious.</t>
+  </si>
+  <si>
+    <t>這個蛋糕很甜又好吃。</t>
+  </si>
+  <si>
+    <t>sour</t>
+  </si>
+  <si>
+    <t>酸的</t>
+  </si>
+  <si>
+    <t>Lemons have a very sour taste.</t>
+  </si>
+  <si>
+    <t>檸檬的味道非常酸。</t>
+  </si>
+  <si>
+    <t>salty</t>
+  </si>
+  <si>
+    <t>鹹的</t>
+  </si>
+  <si>
+    <t>These chips are too salty for me.</t>
+  </si>
+  <si>
+    <t>這些洋芋片對我來說太鹹了。</t>
+  </si>
+  <si>
+    <t>bitter</t>
+  </si>
+  <si>
+    <t>苦的</t>
+  </si>
+  <si>
+    <t>Black coffee can taste bitter.</t>
+  </si>
+  <si>
+    <t>黑咖啡可能會有苦味。</t>
+  </si>
+  <si>
+    <t>spicy</t>
+  </si>
+  <si>
+    <t>辣的</t>
+  </si>
+  <si>
+    <t>I love spicy food like hot pot.</t>
+  </si>
+  <si>
+    <t>我喜歡吃像火鍋那樣的辣食物。</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>淡而無味的</t>
+  </si>
+  <si>
+    <t>The soup tastes bland without salt.</t>
+  </si>
+  <si>
+    <t>湯沒加鹽喝起來很無味。</t>
+  </si>
+  <si>
+    <t>savory</t>
+  </si>
+  <si>
+    <t>鹹香的</t>
+  </si>
+  <si>
+    <t>She prefers savory snacks over sweet ones.</t>
+  </si>
+  <si>
+    <t>她比較喜歡鹹香的點心。</t>
+  </si>
+  <si>
+    <t>tangy</t>
+  </si>
+  <si>
+    <t>酸辣的</t>
+  </si>
+  <si>
+    <t>The sauce has a tangy flavor.</t>
+  </si>
+  <si>
+    <t>這醬料有種酸辣的味道。</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>味道濃郁的</t>
+  </si>
+  <si>
+    <t>The chocolate cake is very rich and creamy.</t>
+  </si>
+  <si>
+    <t>那巧克力蛋糕非常濃郁又滑順。</t>
+  </si>
+  <si>
+    <t>creamy</t>
+  </si>
+  <si>
+    <t>奶油味的</t>
+  </si>
+  <si>
+    <t>This pasta has a creamy sauce.</t>
+  </si>
+  <si>
+    <t>這道義大利麵的醬汁很奶油味。</t>
+  </si>
+  <si>
+    <t>smoky</t>
+  </si>
+  <si>
+    <t>燻味的</t>
+  </si>
+  <si>
+    <t>I love the smoky flavor of grilled meat.</t>
+  </si>
+  <si>
+    <t>我喜歡烤肉的煙燻味。</t>
+  </si>
+  <si>
+    <t>crispy</t>
+  </si>
+  <si>
+    <t>酥脆的</t>
+  </si>
+  <si>
+    <t>The fried chicken is crispy and juicy.</t>
+  </si>
+  <si>
+    <t>炸雞又酥又多汁。</t>
+  </si>
+  <si>
+    <t>juicy</t>
+  </si>
+  <si>
+    <t>多汁的</t>
+  </si>
+  <si>
+    <t>The steak is so juicy and tender.</t>
+  </si>
+  <si>
+    <t>牛排非常多汁又軟嫩。</t>
+  </si>
+  <si>
+    <t>chewy</t>
+  </si>
+  <si>
+    <t>有嚼勁的</t>
+  </si>
+  <si>
+    <t>These noodles are very chewy.</t>
+  </si>
+  <si>
+    <t>這些麵條很有嚼勁。</t>
+  </si>
+  <si>
+    <t>greasy</t>
+  </si>
+  <si>
+    <t>油膩的</t>
+  </si>
+  <si>
+    <t>The burger is too greasy for my taste.</t>
+  </si>
+  <si>
+    <t>這漢堡對我來說太油了。</t>
+  </si>
+  <si>
+    <t>umami</t>
+  </si>
+  <si>
+    <t>鮮味的</t>
+  </si>
+  <si>
+    <t>Miso soup has a lot of umami flavor.</t>
+  </si>
+  <si>
+    <t>味噌湯有濃濃的鮮味。</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>What is today’s date?</t>
+  </si>
+  <si>
+    <t>今天是幾號？</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>日／天</t>
+  </si>
+  <si>
+    <t>I go to school five days a week.</t>
+  </si>
+  <si>
+    <t>我一週上學五天。</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>星期／週</t>
+  </si>
+  <si>
+    <t>There are seven days in a week.</t>
+  </si>
+  <si>
+    <t>一週有七天。</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>My birthday is next month.</t>
+  </si>
+  <si>
+    <t>我的生日在下個月。</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>This year is going by quickly.</t>
+  </si>
+  <si>
+    <t>今年過得好快。</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>We have English class on Monday.</t>
+  </si>
+  <si>
+    <t>我們星期一有英文課。</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>I play soccer every Tuesday.</t>
+  </si>
+  <si>
+    <t>我每個星期二都踢足球。</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>Wednesday is the middle of the week.</t>
+  </si>
+  <si>
+    <t>星期三是一週的中間。</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>I have piano lessons on Thursday.</t>
+  </si>
+  <si>
+    <t>我星期四有鋼琴課。</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>Friday is my favorite day.</t>
+  </si>
+  <si>
+    <t>星期五是我最喜歡的一天。</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>We go shopping on Saturday.</t>
+  </si>
+  <si>
+    <t>我們星期六去購物。</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>Sunday is a day to rest.</t>
+  </si>
+  <si>
+    <t>星期日是休息日。</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>School starts in January.</t>
+  </si>
+  <si>
+    <t>學校一月開學。</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>Valentine’s Day is in February.</t>
+  </si>
+  <si>
+    <t>情人節在二月。</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>三月</t>
+  </si>
+  <si>
+    <t>Spring begins in March.</t>
+  </si>
+  <si>
+    <t>三月開始春天了。</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>It often rains in April.</t>
+  </si>
+  <si>
+    <t>四月常常下雨。</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>五月</t>
+  </si>
+  <si>
+    <t>May is a beautiful month.</t>
+  </si>
+  <si>
+    <t>五月是個美麗的月份。</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>School ends in June.</t>
+  </si>
+  <si>
+    <t>六月學校放假了。</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>July is very hot in Taiwan.</t>
+  </si>
+  <si>
+    <t>七月在台灣很熱。</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>八月</t>
+  </si>
+  <si>
+    <t>We travel in August.</t>
+  </si>
+  <si>
+    <t>我們八月去旅行。</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>九月</t>
+  </si>
+  <si>
+    <t>School starts again in September.</t>
+  </si>
+  <si>
+    <t>九月學校又開學了。</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>Halloween is in October.</t>
+  </si>
+  <si>
+    <t>萬聖節在十月。</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>The weather gets cold in November.</t>
+  </si>
+  <si>
+    <t>十一月天氣變冷了。</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>十二月</t>
+  </si>
+  <si>
+    <t>Christmas is in December.</t>
+  </si>
+  <si>
+    <t>聖誕節在十二月。</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>今天</t>
+  </si>
+  <si>
+    <t>I’m busy today.</t>
+  </si>
+  <si>
+    <t>我今天很忙。</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>明天</t>
+  </si>
+  <si>
+    <t>We’ll go hiking tomorrow.</t>
+  </si>
+  <si>
+    <t>我們明天去爬山。</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>昨天</t>
+  </si>
+  <si>
+    <t>I saw him yesterday.</t>
+  </si>
+  <si>
+    <t>我昨天看到他了。</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>在⋯⋯（地點、時間點）</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>The cat is under the bed.</t>
+  </si>
+  <si>
+    <t>貓在床下。</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>There’s a mirror above the sink.</t>
+  </si>
+  <si>
+    <t>洗手台上方有面鏡子。</t>
+  </si>
+  <si>
+    <t>below</t>
+  </si>
+  <si>
+    <t>在⋯⋯之下</t>
+  </si>
+  <si>
+    <t>The temperature is below zero.</t>
+  </si>
+  <si>
+    <t>溫度在零度以下。</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>在⋯⋯後面</t>
+  </si>
+  <si>
+    <t>The school is behind the park.</t>
+  </si>
+  <si>
+    <t>學校在公園後面。</t>
+  </si>
+  <si>
+    <t>in front of</t>
+  </si>
+  <si>
+    <t>在⋯⋯前面</t>
+  </si>
+  <si>
+    <t>He parked the car in front of the house.</t>
+  </si>
+  <si>
+    <t>他把車停在房子前面。</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>在⋯⋯之間（兩者）</t>
+  </si>
+  <si>
+    <t>The ball is between the two boxes.</t>
+  </si>
+  <si>
+    <t>球在兩個箱子之間。</t>
+  </si>
+  <si>
+    <t>among</t>
+  </si>
+  <si>
+    <t>在⋯⋯之中（三者以上）</t>
+  </si>
+  <si>
+    <t>She was sitting among her friends.</t>
+  </si>
+  <si>
+    <t>她坐在朋友們中間。</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>向⋯⋯、到⋯⋯</t>
+  </si>
+  <si>
+    <t>I’m going to the market.</t>
+  </si>
+  <si>
+    <t>我要去市場。</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>從⋯⋯</t>
+  </si>
+  <si>
+    <t>He came from Japan.</t>
+  </si>
+  <si>
+    <t>他從日本來。</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>和⋯⋯一起／帶著⋯⋯</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>沒有⋯⋯</t>
+  </si>
+  <si>
+    <t>I can’t live without you.</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>關於⋯⋯</t>
+  </si>
+  <si>
+    <t>We talked about the movie.</t>
+  </si>
+  <si>
+    <t>我們談論那部電影。</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>為了⋯⋯／給⋯⋯</t>
+  </si>
+  <si>
+    <t>This gift is for you.</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>⋯⋯的</t>
+  </si>
+  <si>
+    <t>The cover of the book is blue.</t>
+  </si>
+  <si>
+    <t>書的封面是藍色的。</t>
+  </si>
+  <si>
+    <t>在⋯⋯裡面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The keys are in the bag.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The book is on the table.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑰匙在包包裡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書在桌子上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She is at school.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她在學校。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在⋯⋯旁邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is standing by the car.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他站在車子旁邊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The lamp is over the table.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燈在桌子上方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在⋯⋯之上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在⋯⋯上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She is with her sister.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她和妹妹在一起。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有你我活不下去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是給你的禮物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在⋯⋯正下方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在⋯⋯正上方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2113,11 +3520,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2783,10 +4205,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2952,6 +4374,20 @@
         <v>592</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2963,8 +4399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3268,6 +4704,1772 @@
       </c>
       <c r="D21" s="1" t="s">
         <v>672</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="24" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="52.5546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="2" width="13.44140625" style="6"/>
+    <col min="3" max="3" width="36.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="13.44140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>959</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="12" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="44" style="6" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
